--- a/on1/kluster.xlsx
+++ b/on1/kluster.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\TUGAS AKHIR\TA1\Pewarnaan Citra\Proposal\on2\on1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C0E6F396-0586-4037-A9F3-7EB6F4291309}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{851F976D-B4A2-41E8-BB46-0138D623577B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{C6F90A05-95B3-4447-9A26-9187841E926A}"/>
   </bookViews>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619BE9FE-D569-40EC-85CE-CCCBF6471D93}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,43 +392,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B3">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="C3">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B4">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="C4">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="B5">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="C5">
         <v>255</v>
@@ -440,18 +436,20 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="B6">
-        <v>300</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>360</v>
-      </c>
       <c r="B7">
-        <v>360</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
